--- a/财务报表.xlsx
+++ b/财务报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
+    <workbookView windowWidth="13485" windowHeight="7950" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="用户名" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="出差" sheetId="5" r:id="rId5"/>
     <sheet name="财务表" sheetId="6" r:id="rId6"/>
     <sheet name="财务规则" sheetId="7" r:id="rId7"/>
+    <sheet name="发薪表" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
   <si>
     <t>表格名称</t>
   </si>
@@ -440,6 +441,27 @@
   </si>
   <si>
     <t>Finance_rule</t>
+  </si>
+  <si>
+    <t>那月份</t>
+  </si>
+  <si>
+    <t>mothon</t>
+  </si>
+  <si>
+    <t>所发薪资</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>所发人</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>工号</t>
   </si>
 </sst>
 </file>
@@ -447,10 +469,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -474,50 +496,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,7 +511,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,13 +549,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,9 +578,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,6 +593,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -611,7 +618,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,6 +660,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -650,19 +774,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,43 +792,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,55 +810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,37 +834,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,24 +961,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -994,11 +998,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,17 +1035,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,10 +1062,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1052,133 +1074,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3020,7 +3042,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+      <selection activeCell="L11" sqref="A1:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3333,7 +3355,7 @@
   <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:L1"/>
     </sheetView>
   </sheetViews>
@@ -4193,8 +4215,8 @@
   <sheetPr/>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L11" sqref="A1:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4380,6 +4402,308 @@
         <v>6</v>
       </c>
       <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="B2:C4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="10">
+        <v>11</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="10">
+        <v>50</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="10">
+        <v>20</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="10">
+        <v>20</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="C10" s="15"/>
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>

--- a/财务报表.xlsx
+++ b/财务报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13485" windowHeight="7950" firstSheet="2" activeTab="7"/>
+    <workbookView windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="用户名" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
   <si>
     <t>表格名称</t>
   </si>
@@ -125,6 +125,9 @@
     <t>job_number</t>
   </si>
   <si>
+    <t>Finance_overtime</t>
+  </si>
+  <si>
     <t>相亲相爱</t>
   </si>
   <si>
@@ -401,6 +404,9 @@
     <t>共计</t>
   </si>
   <si>
+    <t>total</t>
+  </si>
+  <si>
     <t>社保</t>
   </si>
   <si>
@@ -422,6 +428,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>remarks</t>
+  </si>
+  <si>
     <t>应发薪资</t>
   </si>
   <si>
@@ -459,9 +468,6 @@
   </si>
   <si>
     <t>user_name</t>
-  </si>
-  <si>
-    <t>工号</t>
   </si>
 </sst>
 </file>
@@ -2008,7 +2014,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E12"/>
+      <selection activeCell="C1" sqref="C1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2022,7 +2028,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -2133,11 +2139,11 @@
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="10" t="s">
@@ -2152,10 +2158,10 @@
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2163,11 +2169,11 @@
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="10" t="s">
@@ -2183,7 +2189,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2191,11 +2197,11 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="10" t="s">
@@ -2211,7 +2217,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2219,11 +2225,11 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="10" t="s">
@@ -2237,7 +2243,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2245,11 +2251,11 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="10" t="s">
@@ -2261,17 +2267,17 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10"/>
       <c r="B11" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="10" t="s">
@@ -2287,17 +2293,17 @@
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="10"/>
       <c r="B12" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="10" t="s">
@@ -2355,7 +2361,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="B7:L11"/>
+      <selection activeCell="C1" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2366,7 +2372,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -2477,11 +2483,11 @@
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="10" t="s">
@@ -2496,10 +2502,10 @@
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2507,11 +2513,11 @@
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="10" t="s">
@@ -2527,7 +2533,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2535,11 +2541,11 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="10" t="s">
@@ -2555,7 +2561,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2563,11 +2569,11 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="10" t="s">
@@ -2581,7 +2587,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2589,11 +2595,11 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="10" t="s">
@@ -2605,17 +2611,17 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10"/>
       <c r="B11" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="10" t="s">
@@ -2668,7 +2674,7 @@
   <sheetPr/>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:L1"/>
     </sheetView>
   </sheetViews>
@@ -2683,7 +2689,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -2794,11 +2800,11 @@
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="10" t="s">
@@ -2813,10 +2819,10 @@
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2824,11 +2830,11 @@
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="10" t="s">
@@ -2844,7 +2850,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2852,11 +2858,11 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="10" t="s">
@@ -2872,7 +2878,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2880,11 +2886,11 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="10" t="s">
@@ -2898,7 +2904,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2906,11 +2912,11 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="10" t="s">
@@ -2922,17 +2928,17 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10"/>
       <c r="B11" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="10" t="s">
@@ -2948,11 +2954,11 @@
     <row r="12" ht="14" customHeight="1" spans="1:12">
       <c r="A12" s="10"/>
       <c r="B12" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="10" t="s">
@@ -2968,13 +2974,13 @@
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:12">
       <c r="A13" s="10"/>
       <c r="B13" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="14" t="s">
@@ -2994,7 +3000,7 @@
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3053,7 +3059,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -3164,11 +3170,11 @@
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="10" t="s">
@@ -3183,10 +3189,10 @@
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3194,11 +3200,11 @@
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="10" t="s">
@@ -3214,7 +3220,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3222,11 +3228,11 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="10" t="s">
@@ -3242,7 +3248,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3250,11 +3256,11 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="10" t="s">
@@ -3268,7 +3274,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3276,11 +3282,11 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="10" t="s">
@@ -3292,17 +3298,17 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10"/>
       <c r="B11" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="10" t="s">
@@ -3355,8 +3361,8 @@
   <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3371,7 +3377,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -3482,7 +3488,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="14" t="s">
@@ -3504,11 +3510,11 @@
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="10"/>
@@ -3524,11 +3530,11 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="10"/>
@@ -3544,11 +3550,11 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="10"/>
@@ -3564,11 +3570,11 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="10"/>
@@ -3582,11 +3588,11 @@
     <row r="11" spans="1:12">
       <c r="A11" s="10"/>
       <c r="B11" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="10"/>
@@ -3600,11 +3606,11 @@
     <row r="12" spans="1:12">
       <c r="A12" s="10"/>
       <c r="B12" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="10"/>
@@ -3620,11 +3626,11 @@
         <v>2</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="10"/>
@@ -3640,11 +3646,11 @@
         <v>3</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="10"/>
@@ -3660,11 +3666,11 @@
         <v>4</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="10"/>
@@ -3680,11 +3686,11 @@
         <v>5</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="10"/>
@@ -3700,11 +3706,11 @@
         <v>6</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="10"/>
@@ -3718,11 +3724,11 @@
     <row r="18" spans="1:12">
       <c r="A18" s="10"/>
       <c r="B18" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="10"/>
@@ -3736,11 +3742,11 @@
     <row r="19" spans="1:12">
       <c r="A19" s="10"/>
       <c r="B19" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="10"/>
@@ -3756,11 +3762,11 @@
         <v>2</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="10"/>
@@ -3776,11 +3782,11 @@
         <v>3</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="10"/>
@@ -3796,11 +3802,11 @@
         <v>4</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="10"/>
@@ -3816,11 +3822,11 @@
         <v>5</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="10"/>
@@ -3830,7 +3836,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3838,11 +3844,11 @@
         <v>6</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="10"/>
@@ -3856,11 +3862,11 @@
     <row r="25" spans="1:12">
       <c r="A25" s="10"/>
       <c r="B25" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="10"/>
@@ -3874,11 +3880,11 @@
     <row r="26" spans="1:12">
       <c r="A26" s="10"/>
       <c r="B26" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="10"/>
@@ -3892,11 +3898,11 @@
     <row r="27" spans="1:12">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="10"/>
@@ -3910,11 +3916,11 @@
     <row r="28" spans="1:12">
       <c r="A28" s="10"/>
       <c r="B28" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="10"/>
@@ -3928,11 +3934,11 @@
     <row r="29" spans="1:12">
       <c r="A29" s="10"/>
       <c r="B29" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="10"/>
@@ -3946,11 +3952,11 @@
     <row r="30" spans="1:12">
       <c r="A30" s="10"/>
       <c r="B30" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="10"/>
@@ -3964,11 +3970,11 @@
     <row r="31" spans="1:12">
       <c r="A31" s="10"/>
       <c r="B31" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="10"/>
@@ -3982,10 +3988,12 @@
     <row r="32" spans="1:12">
       <c r="A32" s="10"/>
       <c r="B32" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C32" s="15"/>
-      <c r="D32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="E32" s="15"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -3998,11 +4006,11 @@
     <row r="33" spans="1:12">
       <c r="A33" s="10"/>
       <c r="B33" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="10"/>
@@ -4016,11 +4024,11 @@
     <row r="34" spans="1:12">
       <c r="A34" s="10"/>
       <c r="B34" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="10"/>
@@ -4034,11 +4042,11 @@
     <row r="35" spans="1:12">
       <c r="A35" s="10"/>
       <c r="B35" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="10"/>
@@ -4052,10 +4060,12 @@
     <row r="36" spans="1:12">
       <c r="A36" s="10"/>
       <c r="B36" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C36" s="15"/>
-      <c r="D36" s="14"/>
+      <c r="D36" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="E36" s="15"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -4068,11 +4078,11 @@
     <row r="37" spans="1:12">
       <c r="A37" s="10"/>
       <c r="B37" s="14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="10"/>
@@ -4086,11 +4096,11 @@
     <row r="38" spans="1:12">
       <c r="A38" s="10"/>
       <c r="B38" s="14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="14" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="10"/>
@@ -4104,11 +4114,11 @@
     <row r="39" spans="1:12">
       <c r="A39" s="10"/>
       <c r="B39" s="14" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="10"/>
@@ -4227,7 +4237,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -4467,8 +4477,8 @@
   <sheetPr/>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4479,7 +4489,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -4590,11 +4600,11 @@
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="10" t="s">
@@ -4609,10 +4619,10 @@
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -4620,11 +4630,11 @@
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="10" t="s">
@@ -4640,7 +4650,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -4648,11 +4658,11 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="10" t="s">
@@ -4668,7 +4678,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -4676,11 +4686,11 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="14" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="10" t="s">
@@ -4694,16 +4704,14 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="10">
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>146</v>
-      </c>
+      <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
@@ -4717,9 +4725,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="E11" s="15"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>

--- a/财务报表.xlsx
+++ b/财务报表.xlsx
@@ -3359,10 +3359,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:E36"/>
+      <selection activeCell="A40" sqref="$A40:$XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4129,8 +4129,26 @@
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
     </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="10"/>
+      <c r="B40" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="85">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="F2:K2"/>
@@ -4205,6 +4223,8 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>

--- a/财务报表.xlsx
+++ b/财务报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="用户名" sheetId="1" r:id="rId1"/>
@@ -477,8 +477,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -502,7 +502,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,27 +546,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -560,7 +570,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -586,52 +632,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,13 +666,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,13 +684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,13 +702,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,61 +786,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,25 +816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,13 +828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,13 +840,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,6 +963,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1011,36 +1041,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1068,10 +1068,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1080,133 +1080,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3361,7 +3361,7 @@
   <sheetPr/>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A40" sqref="$A40:$XFD40"/>
     </sheetView>
   </sheetViews>
@@ -4497,8 +4497,8 @@
   <sheetPr/>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4745,13 +4745,9 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10"/>
-      <c r="B11" s="14" t="s">
-        <v>73</v>
-      </c>
+      <c r="B11" s="14"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="D11" s="14"/>
       <c r="E11" s="15"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>

--- a/财务报表.xlsx
+++ b/财务报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="用户名" sheetId="1" r:id="rId1"/>
@@ -475,10 +475,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -508,9 +508,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,13 +525,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,9 +546,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,8 +576,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,44 +623,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,7 +631,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,19 +666,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,6 +726,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -708,37 +816,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,103 +846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,17 +963,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,35 +1017,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1060,6 +1036,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1068,145 +1068,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2011,10 +2011,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:L1"/>
+      <selection activeCell="A13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2318,690 +2318,27 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-  </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="B2:C4"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:L11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:L1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="16"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="10">
-        <v>11</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="10">
-        <v>2</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="10">
-        <v>50</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="10">
-        <v>3</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="10">
-        <v>20</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="10">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="10">
-        <v>20</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="10">
-        <v>5</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="10">
-        <v>6</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="10"/>
-      <c r="B11" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="B2:C4"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:L13"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:L1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="12" max="12" width="29.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="16"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="10">
-        <v>11</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="10">
-        <v>2</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="10">
-        <v>50</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="10">
-        <v>3</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="10">
-        <v>20</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="10">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="10">
-        <v>20</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="10">
-        <v>5</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="10">
-        <v>6</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="10"/>
-      <c r="B11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" ht="14" customHeight="1" spans="1:12">
-      <c r="A12" s="10"/>
-      <c r="B12" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="10">
-        <v>10</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10">
-        <v>0</v>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" ht="14" customHeight="1" spans="1:12">
+    <row r="13" spans="1:12">
       <c r="A13" s="10"/>
       <c r="B13" s="14" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="14" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="10">
-        <v>10</v>
-      </c>
+      <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10">
         <v>0</v>
       </c>
       <c r="K13" s="10"/>
-      <c r="L13" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="L13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -3042,13 +2379,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="A1:L11"/>
+      <selection activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3059,7 +2396,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -3220,7 +2557,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3248,7 +2585,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3256,7 +2593,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="14" t="s">
@@ -3304,7 +2641,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="10"/>
       <c r="B11" s="14" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="14" t="s">
@@ -3321,8 +2658,30 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="F2:K2"/>
@@ -3341,6 +2700,743 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="B2:C4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="$A14:$XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="12" max="12" width="29.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="10">
+        <v>11</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="10">
+        <v>50</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="10">
+        <v>20</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="10">
+        <v>20</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" ht="14" customHeight="1" spans="1:12">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="10">
+        <v>10</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" ht="14" customHeight="1" spans="1:12">
+      <c r="A13" s="10"/>
+      <c r="B13" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="10">
+        <v>10</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="10"/>
+      <c r="B14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="B2:C4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="10">
+        <v>11</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="10">
+        <v>50</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="10">
+        <v>20</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="10">
+        <v>20</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
@@ -3361,7 +3457,7 @@
   <sheetPr/>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A40" sqref="$A40:$XFD40"/>
     </sheetView>
   </sheetViews>
@@ -4245,8 +4341,8 @@
   <sheetPr/>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L11" sqref="A1:L11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4497,7 +4593,7 @@
   <sheetPr/>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
